--- a/model/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/model/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/beerwiser/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E421614-CD78-BE44-BAC1-D6E18ACF868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="32300" windowHeight="18120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
     <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>configuration</t>
   </si>
@@ -39,12 +45,6 @@
     <t>theme</t>
   </si>
   <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
     <t>monetary</t>
   </si>
   <si>
@@ -168,9 +168,6 @@
     <t>saturation_point</t>
   </si>
   <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
     <t>Accidents reduction %</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>New water use</t>
   </si>
   <si>
-    <t>Squeezed *</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -205,13 +199,16 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>squeezed *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,17 +267,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +323,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -352,6 +357,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -386,9 +392,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,14 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -590,14 +597,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -625,70 +634,64 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="D4">
         <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
         <v>1</v>
       </c>
     </row>
@@ -698,85 +701,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
       </c>
       <c r="C5">
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>150000</v>
@@ -788,85 +791,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
       <c r="C2">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>0.9</v>
@@ -878,56 +881,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>7500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0.05</v>
@@ -939,57 +942,56 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>0.48</v>
       </c>
       <c r="F2">
-        <v>0.9500000000000001</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="G2">
         <v>0.9</v>
@@ -997,19 +999,16 @@
       <c r="H2">
         <v>300000</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1023,183 +1022,147 @@
       <c r="H3">
         <v>275000</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1208,40 +1171,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1253,40 +1216,40 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1298,40 +1261,40 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>

--- a/model/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/model/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/beerwiser/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/trbs open source/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E421614-CD78-BE44-BAC1-D6E18ACF868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091356BA-B7E0-7245-ADAB-1FDCEC969BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="32300" windowHeight="18120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
     <sheet name="scenarios" sheetId="4" r:id="rId4"/>
     <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="intermediates" sheetId="6" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="7" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="8" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>configuration</t>
   </si>
@@ -42,6 +43,9 @@
     <t>key_output</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>theme</t>
   </si>
   <si>
@@ -69,16 +73,25 @@
     <t>Accidents reduction</t>
   </si>
   <si>
+    <t>#/year</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
     <t>Water use reduction</t>
   </si>
   <si>
+    <t>hl/year</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
     <t>Production cost reduction</t>
   </si>
   <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Planet</t>
+    <t>%</t>
   </si>
   <si>
     <t>Profit</t>
@@ -93,12 +106,15 @@
     <t>Invest in training of employees</t>
   </si>
   <si>
+    <t>Focus on water recycling</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
     <t>Invest in water recycling</t>
   </si>
   <si>
-    <t>Focus on water recycling</t>
-  </si>
-  <si>
     <t>Focus on training</t>
   </si>
   <si>
@@ -114,12 +130,12 @@
     <t>Cost of accident</t>
   </si>
   <si>
+    <t>Base case</t>
+  </si>
+  <si>
     <t>Effectiveness water recycling</t>
   </si>
   <si>
-    <t>Base case</t>
-  </si>
-  <si>
     <t>Optimistic</t>
   </si>
   <si>
@@ -132,6 +148,9 @@
     <t># employees</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Current # accidents</t>
   </si>
   <si>
@@ -141,9 +160,36 @@
     <t>Current water use</t>
   </si>
   <si>
+    <t>hl</t>
+  </si>
+  <si>
     <t>Water unit cost</t>
   </si>
   <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>Accidents reduction %</t>
+  </si>
+  <si>
+    <t>Water use reduction % when effective</t>
+  </si>
+  <si>
+    <t>Water use reduction %</t>
+  </si>
+  <si>
+    <t>Production cost reduction $</t>
+  </si>
+  <si>
+    <t>Cost of training per employee</t>
+  </si>
+  <si>
+    <t>New water use</t>
+  </si>
+  <si>
+    <t>New # accidents</t>
+  </si>
+  <si>
     <t>destination</t>
   </si>
   <si>
@@ -168,37 +214,16 @@
     <t>saturation_point</t>
   </si>
   <si>
-    <t>Accidents reduction %</t>
-  </si>
-  <si>
-    <t>Water use reduction % when effective</t>
-  </si>
-  <si>
-    <t>Water use reduction %</t>
-  </si>
-  <si>
-    <t>Production cost reduction $</t>
-  </si>
-  <si>
-    <t>Cost of training per employee</t>
-  </si>
-  <si>
-    <t>New # accidents</t>
-  </si>
-  <si>
-    <t>New water use</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>-*</t>
-  </si>
-  <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>squeezed *</t>
@@ -219,10 +244,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,7 +290,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,9 +306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -357,7 +380,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -392,10 +414,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -592,21 +615,68 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -634,56 +704,65 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -692,526 +771,626 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>250000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>250000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>150000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>150000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>15000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>0.98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>12000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>20000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>50000</v>
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>250000</v>
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>250000</v>
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>7500000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>50000</v>
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>15000000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>0.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0.05</v>
       </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2">
-        <v>0.48</v>
-      </c>
-      <c r="F2">
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="G2">
-        <v>0.9</v>
-      </c>
-      <c r="H2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>275000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>0.48</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>0.9</v>
+      </c>
+      <c r="H2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1219,21 +1398,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1241,7 +1422,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1249,14 +1430,14 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1264,21 +1445,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1286,7 +1469,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1294,13 +1477,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/model/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/model/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/trbs open source/beerwiser/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091356BA-B7E0-7245-ADAB-1FDCEC969BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B641F-C12C-FB44-9437-884644042C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,17 @@
     <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
     <sheet name="scenarios" sheetId="4" r:id="rId4"/>
     <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="intermediates" sheetId="6" r:id="rId6"/>
-    <sheet name="dependencies" sheetId="7" r:id="rId7"/>
-    <sheet name="theme_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="key_output_weights" sheetId="9" r:id="rId9"/>
-    <sheet name="scenario_weights" sheetId="10" r:id="rId10"/>
+    <sheet name="dependencies" sheetId="7" r:id="rId6"/>
+    <sheet name="theme_weights" sheetId="8" r:id="rId7"/>
+    <sheet name="key_output_weights" sheetId="9" r:id="rId8"/>
+    <sheet name="scenario_weights" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>configuration</t>
   </si>
@@ -43,9 +42,6 @@
     <t>key_output</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>theme</t>
   </si>
   <si>
@@ -73,27 +69,18 @@
     <t>Accidents reduction</t>
   </si>
   <si>
-    <t>#/year</t>
-  </si>
-  <si>
     <t>People</t>
   </si>
   <si>
     <t>Water use reduction</t>
   </si>
   <si>
-    <t>hl/year</t>
-  </si>
-  <si>
     <t>Planet</t>
   </si>
   <si>
     <t>Production cost reduction</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Profit</t>
   </si>
   <si>
@@ -109,9 +96,6 @@
     <t>Focus on water recycling</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
     <t>Invest in water recycling</t>
   </si>
   <si>
@@ -148,9 +132,6 @@
     <t># employees</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Current # accidents</t>
   </si>
   <si>
@@ -160,13 +141,7 @@
     <t>Current water use</t>
   </si>
   <si>
-    <t>hl</t>
-  </si>
-  <si>
     <t>Water unit cost</t>
-  </si>
-  <si>
-    <t>intermediate</t>
   </si>
   <si>
     <t>Accidents reduction %</t>
@@ -290,7 +265,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,64 +594,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -704,65 +632,56 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -771,9 +690,6 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -784,110 +700,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>50000</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>250000</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>50000</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
       <c r="C6">
         <v>150000</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>150000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -897,110 +792,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>15000</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0.98</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>12000</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>20000</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>0.9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1010,78 +884,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>7500000</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>15000000</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0.05</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1090,93 +946,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1193,39 +966,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>0.48</v>
@@ -1242,13 +1015,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1265,128 +1038,128 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1406,15 +1179,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1422,7 +1195,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1430,7 +1203,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1441,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1456,12 +1229,12 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1469,7 +1242,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1477,7 +1250,54 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
